--- a/data/trans_orig/P37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904C7D0F-F5A7-4F10-8CA8-FC633323A300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84035FF1-222A-43DC-AA6F-3080E2E50572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD98CC10-9916-4750-840E-21B25D42F9AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{966EF6AF-4314-404C-BFB2-D8D95EC8BE42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>21,77%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>78,23%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,820 +197,832 @@
     <t>13,98%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -1019,325 +1031,313 @@
     <t>28,7%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>39,94%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>47,5%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>60,06%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
+    <t>52,5%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>26,87%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
   </si>
   <si>
     <t>36,0%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>28,87%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7972F7F0-0FBD-4BB6-AFA7-F90CCBAFCCFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC51B07-8380-4568-9A4C-0BA92A138ABC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2389,13 @@
         <v>589806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -2404,13 +2404,13 @@
         <v>572902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1140</v>
@@ -2419,13 +2419,13 @@
         <v>1162707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2493,13 @@
         <v>126394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -2508,13 +2508,13 @@
         <v>165679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -2523,13 +2523,13 @@
         <v>292073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>814978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>842</v>
@@ -2559,13 +2559,13 @@
         <v>872933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
@@ -2574,13 +2574,13 @@
         <v>1687911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2648,13 @@
         <v>454486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>510</v>
@@ -2663,13 +2663,13 @@
         <v>535342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -2678,13 +2678,13 @@
         <v>989828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,16 +2696,16 @@
         <v>2753</v>
       </c>
       <c r="D20" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2785</v>
@@ -2714,13 +2714,13 @@
         <v>2841958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5538</v>
@@ -2729,13 +2729,13 @@
         <v>5662251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
         <v>3212</v>
       </c>
       <c r="D21" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92742381-C9CF-4024-B1F6-0D655ADC32F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8E1F2-BCAC-4EF0-AC86-CDD694C30E78}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2936,13 @@
         <v>15708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -2951,13 +2951,13 @@
         <v>26618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2966,13 +2966,13 @@
         <v>42326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>100057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3002,13 +3002,13 @@
         <v>85287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3017,13 +3017,13 @@
         <v>185344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>126404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3106,13 +3106,13 @@
         <v>106420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -3121,13 +3121,13 @@
         <v>232823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>460273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3157,13 +3157,13 @@
         <v>478725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>888</v>
@@ -3172,13 +3172,13 @@
         <v>938999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3246,13 @@
         <v>179297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -3261,13 +3261,13 @@
         <v>191792</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>338</v>
@@ -3276,13 +3276,13 @@
         <v>371090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>838650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>764</v>
@@ -3312,13 +3312,13 @@
         <v>839321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1537</v>
@@ -3327,13 +3327,13 @@
         <v>1677970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3401,13 @@
         <v>118840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3416,13 +3416,13 @@
         <v>133365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3431,13 +3431,13 @@
         <v>252205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3452,13 @@
         <v>637778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -3467,13 +3467,13 @@
         <v>643809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -3482,13 +3482,13 @@
         <v>1281587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3556,13 +3556,13 @@
         <v>163921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>181</v>
@@ -3571,13 +3571,13 @@
         <v>191156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -3586,13 +3586,13 @@
         <v>355077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3607,13 @@
         <v>780827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -3622,13 +3622,13 @@
         <v>860745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
@@ -3637,13 +3637,13 @@
         <v>1641572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3711,13 @@
         <v>604171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -3726,13 +3726,13 @@
         <v>649351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1150</v>
@@ -3741,13 +3741,13 @@
         <v>1253522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3762,13 @@
         <v>2817584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2695</v>
@@ -3777,13 +3777,13 @@
         <v>2907887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5351</v>
@@ -3792,13 +3792,13 @@
         <v>5725471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FB5466-4364-4C51-B240-4DFDB9AB034F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A8F2C-2891-4BBF-9BEF-4AB6E01CC232}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3999,13 @@
         <v>20523</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4014,13 +4014,13 @@
         <v>20466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4029,13 +4029,13 @@
         <v>40989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4050,13 @@
         <v>96023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4065,13 +4065,13 @@
         <v>92894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -4080,13 +4080,13 @@
         <v>188917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4154,13 @@
         <v>94643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -4169,13 +4169,13 @@
         <v>99062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>191</v>
@@ -4184,13 +4184,13 @@
         <v>193706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4205,13 @@
         <v>463611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -4220,13 +4220,13 @@
         <v>460417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4235,13 +4235,13 @@
         <v>924027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4309,13 @@
         <v>148260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -4324,13 +4324,13 @@
         <v>187954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4339,13 +4339,13 @@
         <v>336214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4360,13 @@
         <v>874171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -4375,13 +4375,13 @@
         <v>854959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1621</v>
@@ -4390,13 +4390,13 @@
         <v>1729130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4464,13 @@
         <v>126463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4479,13 +4479,13 @@
         <v>122959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -4494,13 +4494,13 @@
         <v>249422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>633089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>631</v>
@@ -4530,13 +4530,13 @@
         <v>662052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -4545,13 +4545,13 @@
         <v>1295141</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4619,13 @@
         <v>144458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4634,13 +4634,13 @@
         <v>182439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -4649,13 +4649,13 @@
         <v>326897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4670,13 @@
         <v>793109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -4685,13 +4685,13 @@
         <v>861340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4700,13 +4700,13 @@
         <v>1654449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4774,13 @@
         <v>534348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>526</v>
@@ -4789,13 +4789,13 @@
         <v>612880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -4804,13 +4804,13 @@
         <v>1147228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4825,13 @@
         <v>2860002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>2812</v>
@@ -4840,13 +4840,13 @@
         <v>2931662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>5507</v>
@@ -4855,13 +4855,13 @@
         <v>5791664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB609B0-48DE-4E2D-A3B9-B7D25CF6D5E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79157D55-D995-4635-B0B8-578AB9A9C59C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5062,13 @@
         <v>29267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -5077,13 +5077,13 @@
         <v>52218</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5092,13 +5092,13 @@
         <v>81485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5113,13 @@
         <v>72715</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5128,13 +5128,13 @@
         <v>78515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -5143,13 +5143,13 @@
         <v>151230</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>183290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -5232,13 +5232,13 @@
         <v>222189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -5247,13 +5247,13 @@
         <v>405479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5268,13 @@
         <v>366533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -5283,7 +5283,7 @@
         <v>370366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>356</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5745,7 +5745,7 @@
         <v>875</v>
       </c>
       <c r="I17" s="7">
-        <v>708040</v>
+        <v>708041</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>409</v>
@@ -5796,7 +5796,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84035FF1-222A-43DC-AA6F-3080E2E50572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0D1059-0AA4-43B5-8135-A155E1C1BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{966EF6AF-4314-404C-BFB2-D8D95EC8BE42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6D6E6A-ACC1-4812-9C57-153C5BDA847C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,994 +77,1000 @@
     <t>21,77%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>13,87%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>66,18%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
   </si>
   <si>
     <t>64,99%</t>
@@ -1749,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC51B07-8380-4568-9A4C-0BA92A138ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2C249A-CC00-4E93-85D0-4BFA038BD7A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2648,13 +2654,13 @@
         <v>454486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>510</v>
@@ -2663,13 +2669,13 @@
         <v>535342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -2678,13 +2684,13 @@
         <v>989828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,16 +2702,16 @@
         <v>2753</v>
       </c>
       <c r="D20" s="7">
-        <v>2820293</v>
+        <v>2820292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2785</v>
@@ -2714,13 +2720,13 @@
         <v>2841958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5538</v>
@@ -2729,13 +2735,13 @@
         <v>5662251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2753,7 @@
         <v>3212</v>
       </c>
       <c r="D21" s="7">
-        <v>3274779</v>
+        <v>3274778</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8E1F2-BCAC-4EF0-AC86-CDD694C30E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B973EA42-3E30-484D-A72E-97C28B11F822}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2942,13 @@
         <v>15708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -2951,13 +2957,13 @@
         <v>26618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2966,13 +2972,13 @@
         <v>42326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2993,13 @@
         <v>100057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3002,13 +3008,13 @@
         <v>85287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3017,13 +3023,13 @@
         <v>185344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3097,13 @@
         <v>126404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3106,13 +3112,13 @@
         <v>106420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -3121,13 +3127,13 @@
         <v>232823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3148,13 @@
         <v>460273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3157,13 +3163,13 @@
         <v>478725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>888</v>
@@ -3172,13 +3178,13 @@
         <v>938999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3252,13 @@
         <v>179297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -3261,13 +3267,13 @@
         <v>191792</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>338</v>
@@ -3276,13 +3282,13 @@
         <v>371090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3303,13 @@
         <v>838650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>764</v>
@@ -3312,13 +3318,13 @@
         <v>839321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1537</v>
@@ -3327,13 +3333,13 @@
         <v>1677970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3407,13 @@
         <v>118840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3416,13 +3422,13 @@
         <v>133365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3431,13 +3437,13 @@
         <v>252205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3458,13 @@
         <v>637778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -3467,13 +3473,13 @@
         <v>643809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -3482,13 +3488,13 @@
         <v>1281587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3562,13 @@
         <v>163921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>181</v>
@@ -3571,13 +3577,13 @@
         <v>191156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -3586,13 +3592,13 @@
         <v>355077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3613,13 @@
         <v>780827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -3622,13 +3628,13 @@
         <v>860745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
@@ -3637,13 +3643,13 @@
         <v>1641572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3717,13 @@
         <v>604171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -3726,13 +3732,13 @@
         <v>649351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1150</v>
@@ -3741,13 +3747,13 @@
         <v>1253522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3768,13 @@
         <v>2817584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2695</v>
@@ -3777,28 +3783,28 @@
         <v>2907887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5351</v>
       </c>
       <c r="N20" s="7">
-        <v>5725471</v>
+        <v>5725470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3846,7 @@
         <v>6501</v>
       </c>
       <c r="N21" s="7">
-        <v>6978993</v>
+        <v>6978992</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3854,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A8F2C-2891-4BBF-9BEF-4AB6E01CC232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4EC430-B25A-48B9-BB53-9D2AA2C64B7A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +4005,13 @@
         <v>20523</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4014,13 +4020,13 @@
         <v>20466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4029,13 +4035,13 @@
         <v>40989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>96023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4065,13 +4071,13 @@
         <v>92894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -4080,13 +4086,13 @@
         <v>188917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4160,13 @@
         <v>94643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -4169,13 +4175,13 @@
         <v>99062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>191</v>
@@ -4184,13 +4190,13 @@
         <v>193706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4211,13 @@
         <v>463611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -4220,13 +4226,13 @@
         <v>460417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4235,13 +4241,13 @@
         <v>924027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4315,13 @@
         <v>148260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -4324,13 +4330,13 @@
         <v>187954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4339,13 +4345,13 @@
         <v>336214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4366,13 @@
         <v>874171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -4375,13 +4381,13 @@
         <v>854959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1621</v>
@@ -4390,13 +4396,13 @@
         <v>1729130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4470,13 @@
         <v>126463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4479,13 +4485,13 @@
         <v>122959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -4494,13 +4500,13 @@
         <v>249422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4521,13 @@
         <v>633089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>631</v>
@@ -4536,7 +4542,7 @@
         <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -4545,13 +4551,13 @@
         <v>1295141</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4625,13 @@
         <v>144458</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4634,13 +4640,13 @@
         <v>182439</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -4649,13 +4655,13 @@
         <v>326897</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4676,13 @@
         <v>793109</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -4685,13 +4691,13 @@
         <v>861340</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4700,13 +4706,13 @@
         <v>1654449</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79157D55-D995-4635-B0B8-578AB9A9C59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7CD955-77A1-4DF8-A029-7A4AEA43ABA5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,10 +5086,10 @@
         <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5092,13 +5098,13 @@
         <v>81485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5119,13 @@
         <v>72715</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5128,13 +5134,13 @@
         <v>78515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -5143,13 +5149,13 @@
         <v>151230</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5223,13 @@
         <v>183290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -5235,10 +5241,10 @@
         <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -5247,13 +5253,13 @@
         <v>405479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5274,13 @@
         <v>366533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -5283,13 +5289,13 @@
         <v>370366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>911</v>
@@ -5298,13 +5304,13 @@
         <v>736899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5378,13 @@
         <v>279253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>621</v>
@@ -5387,13 +5393,13 @@
         <v>381419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -5402,13 +5408,13 @@
         <v>660673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5429,13 @@
         <v>759995</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>895</v>
@@ -5438,13 +5444,13 @@
         <v>678055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>1528</v>
@@ -5453,13 +5459,13 @@
         <v>1438049</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5533,13 @@
         <v>223844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>376</v>
@@ -5542,13 +5548,13 @@
         <v>361326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>623</v>
@@ -5557,13 +5563,13 @@
         <v>585170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5584,13 @@
         <v>504928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>671</v>
@@ -5593,13 +5599,13 @@
         <v>513045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>1100</v>
@@ -5608,13 +5614,13 @@
         <v>1017972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5688,13 @@
         <v>355667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
@@ -5697,13 +5703,13 @@
         <v>439629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1134</v>
@@ -5712,13 +5718,13 @@
         <v>795296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5739,13 @@
         <v>609736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>875</v>
@@ -5748,13 +5754,13 @@
         <v>708041</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1433</v>
@@ -5763,13 +5769,13 @@
         <v>1317777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5843,13 @@
         <v>1071322</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>2238</v>
@@ -5852,13 +5858,13 @@
         <v>1456781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>3566</v>
@@ -5867,13 +5873,13 @@
         <v>2528103</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5894,13 @@
         <v>2313906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>3124</v>
@@ -5903,13 +5909,13 @@
         <v>2348021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>5172</v>
@@ -5918,13 +5924,13 @@
         <v>4661927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0D1059-0AA4-43B5-8135-A155E1C1BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2632B9-D05D-416F-93D8-E25D2232FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6D6E6A-ACC1-4812-9C57-153C5BDA847C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A045B137-45E8-4A1E-93F7-E3D1CCCFF490}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>78,23%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>13,98%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,55 +254,49 @@
     <t>12,96%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>12,6%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>87,4%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,19 +305,19 @@
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>14,75%</t>
@@ -332,697 +326,691 @@
     <t>13,09%</t>
   </si>
   <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>84,06%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -1031,319 +1019,325 @@
     <t>28,7%</t>
   </si>
   <si>
-    <t>20,96%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>62,5%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>73,0%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>61,69%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>62,36%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>61,71%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2C249A-CC00-4E93-85D0-4BFA038BD7A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB11E45-ECB0-45F7-821E-FD2525EF7AC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2380,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2389,13 @@
         <v>589806</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -2410,13 +2404,13 @@
         <v>572902</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1140</v>
@@ -2425,13 +2419,13 @@
         <v>1162707</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2493,13 @@
         <v>126394</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -2514,13 +2508,13 @@
         <v>165679</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -2529,13 +2523,13 @@
         <v>292073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>814978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>842</v>
@@ -2565,13 +2559,13 @@
         <v>872933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
@@ -2580,13 +2574,13 @@
         <v>1687911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2648,13 @@
         <v>454486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>510</v>
@@ -2669,13 +2663,13 @@
         <v>535342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -2684,13 +2678,13 @@
         <v>989828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>2820292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>2785</v>
@@ -2720,13 +2714,13 @@
         <v>2841958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>5538</v>
@@ -2735,13 +2729,13 @@
         <v>5662251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B973EA42-3E30-484D-A72E-97C28B11F822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C78395-AEA4-4244-B805-1FA977CAEE3A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2936,13 @@
         <v>15708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -2957,13 +2951,13 @@
         <v>26618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2972,13 +2966,13 @@
         <v>42326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>100057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3008,13 +3002,13 @@
         <v>85287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3023,13 +3017,13 @@
         <v>185344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3091,13 @@
         <v>126404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -3112,13 +3106,13 @@
         <v>106420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -3127,13 +3121,13 @@
         <v>232823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3142,13 @@
         <v>460273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3163,13 +3157,13 @@
         <v>478725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>888</v>
@@ -3178,13 +3172,13 @@
         <v>938999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3246,13 @@
         <v>179297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -3267,13 +3261,13 @@
         <v>191792</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>338</v>
@@ -3282,13 +3276,13 @@
         <v>371090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3297,13 @@
         <v>838650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>764</v>
@@ -3318,13 +3312,13 @@
         <v>839321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>1537</v>
@@ -3333,13 +3327,13 @@
         <v>1677970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3401,13 @@
         <v>118840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -3422,13 +3416,13 @@
         <v>133365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3437,13 +3431,13 @@
         <v>252205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3452,13 @@
         <v>637778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -3473,13 +3467,13 @@
         <v>643809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -3488,13 +3482,13 @@
         <v>1281587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3556,13 @@
         <v>163921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>181</v>
@@ -3577,13 +3571,13 @@
         <v>191156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -3592,13 +3586,13 @@
         <v>355077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3607,13 @@
         <v>780827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -3628,13 +3622,13 @@
         <v>860745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
@@ -3643,13 +3637,13 @@
         <v>1641572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3711,13 @@
         <v>604171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -3732,13 +3726,13 @@
         <v>649351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>1150</v>
@@ -3747,13 +3741,13 @@
         <v>1253522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3762,13 @@
         <v>2817584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>2695</v>
@@ -3783,28 +3777,28 @@
         <v>2907887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>5351</v>
       </c>
       <c r="N20" s="7">
-        <v>5725470</v>
+        <v>5725471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3840,7 @@
         <v>6501</v>
       </c>
       <c r="N21" s="7">
-        <v>6978992</v>
+        <v>6978993</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3860,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4EC430-B25A-48B9-BB53-9D2AA2C64B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D1BB13-149C-4AFD-AC93-25C9D38CAFEA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +3999,13 @@
         <v>20523</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4020,13 +4014,13 @@
         <v>20466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4035,13 +4029,13 @@
         <v>40989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>96023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -4071,13 +4065,13 @@
         <v>92894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -4086,13 +4080,13 @@
         <v>188917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4154,13 @@
         <v>94643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -4175,13 +4169,13 @@
         <v>99062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>191</v>
@@ -4190,13 +4184,13 @@
         <v>193706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>463611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -4226,13 +4220,13 @@
         <v>460417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4241,13 +4235,13 @@
         <v>924027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4309,13 @@
         <v>148260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -4330,13 +4324,13 @@
         <v>187954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4345,13 +4339,13 @@
         <v>336214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>874171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -4381,13 +4375,13 @@
         <v>854959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1621</v>
@@ -4396,13 +4390,13 @@
         <v>1729130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4464,13 @@
         <v>126463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4485,13 +4479,13 @@
         <v>122959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -4500,13 +4494,13 @@
         <v>249422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4515,13 @@
         <v>633089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>631</v>
@@ -4536,13 +4530,13 @@
         <v>662052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -4551,13 +4545,13 @@
         <v>1295141</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4619,13 @@
         <v>144458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4640,13 +4634,13 @@
         <v>182439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>299</v>
@@ -4655,13 +4649,13 @@
         <v>326897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4670,13 @@
         <v>793109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -4691,13 +4685,13 @@
         <v>861340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4706,13 +4700,13 @@
         <v>1654449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4774,13 @@
         <v>534348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>526</v>
@@ -4795,13 +4789,13 @@
         <v>612880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -4810,13 +4804,13 @@
         <v>1147228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4825,13 @@
         <v>2860002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>2812</v>
@@ -4846,13 +4840,13 @@
         <v>2931662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5507</v>
@@ -4861,13 +4855,13 @@
         <v>5791664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7CD955-77A1-4DF8-A029-7A4AEA43ABA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E437BA-647D-4785-B6F7-7AADD18FE510}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5062,13 @@
         <v>29267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -5083,13 +5077,13 @@
         <v>52218</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5098,13 +5092,13 @@
         <v>81485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5113,13 @@
         <v>72715</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5134,13 +5128,13 @@
         <v>78515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -5149,13 +5143,13 @@
         <v>151230</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5217,13 @@
         <v>183290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -5238,13 +5232,13 @@
         <v>222189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -5253,13 +5247,13 @@
         <v>405479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5268,13 @@
         <v>366533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -5289,13 +5283,13 @@
         <v>370366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>911</v>
@@ -5304,13 +5298,13 @@
         <v>736899</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5372,13 @@
         <v>279253</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>621</v>
@@ -5393,13 +5387,13 @@
         <v>381419</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -5408,13 +5402,13 @@
         <v>660673</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5423,13 @@
         <v>759995</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>895</v>
@@ -5444,13 +5438,13 @@
         <v>678055</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>1528</v>
@@ -5459,13 +5453,13 @@
         <v>1438049</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5527,13 @@
         <v>223844</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>376</v>
@@ -5548,13 +5542,13 @@
         <v>361326</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>623</v>
@@ -5563,13 +5557,13 @@
         <v>585170</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5578,13 @@
         <v>504928</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>671</v>
@@ -5599,13 +5593,13 @@
         <v>513045</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>1100</v>
@@ -5614,13 +5608,13 @@
         <v>1017972</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5682,13 @@
         <v>355667</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
@@ -5703,13 +5697,13 @@
         <v>439629</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1134</v>
@@ -5718,13 +5712,13 @@
         <v>795296</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,28 +5733,28 @@
         <v>609736</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>875</v>
       </c>
       <c r="I17" s="7">
-        <v>708041</v>
+        <v>708040</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1433</v>
@@ -5769,13 +5763,13 @@
         <v>1317777</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5796,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5843,13 +5837,13 @@
         <v>1071322</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>2238</v>
@@ -5858,13 +5852,13 @@
         <v>1456781</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>3566</v>
@@ -5873,13 +5867,13 @@
         <v>2528103</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5888,13 @@
         <v>2313906</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>3124</v>
@@ -5909,13 +5903,13 @@
         <v>2348021</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>5172</v>
@@ -5924,13 +5918,13 @@
         <v>4661927</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2632B9-D05D-416F-93D8-E25D2232FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FD9B8F-D7D9-402E-A5D8-8F9A969DD5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A045B137-45E8-4A1E-93F7-E3D1CCCFF490}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{79F1EE37-CAC2-459E-8819-F537E5A02065}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,739 +68,598 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>14,5%</t>
@@ -1016,328 +875,274 @@
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB11E45-ECB0-45F7-821E-FD2525EF7AC7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC84020-ADED-407C-BC62-DAE1391A0015}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>25116</v>
+        <v>105857</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I4" s="7">
-        <v>17205</v>
+        <v>102103</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="N4" s="7">
-        <v>42321</v>
+        <v>207961</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="D5" s="7">
-        <v>90242</v>
+        <v>588155</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>593</v>
       </c>
       <c r="I5" s="7">
-        <v>95550</v>
+        <v>585332</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>190</v>
+        <v>1170</v>
       </c>
       <c r="N5" s="7">
-        <v>185792</v>
+        <v>1173486</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687435</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381447</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>80741</v>
+        <v>134445</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>84899</v>
+        <v>157602</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="N7" s="7">
-        <v>165640</v>
+        <v>292047</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>495</v>
+        <v>767</v>
       </c>
       <c r="D8" s="7">
-        <v>497913</v>
+        <v>827355</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>485</v>
+        <v>764</v>
       </c>
       <c r="I8" s="7">
-        <v>489781</v>
+        <v>810791</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>980</v>
+        <v>1531</v>
       </c>
       <c r="N8" s="7">
-        <v>987694</v>
+        <v>1638146</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574680</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153334</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>134445</v>
+        <v>87789</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>157602</v>
+        <v>109958</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="N10" s="7">
-        <v>292047</v>
+        <v>197748</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2219,7 +2024,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>767</v>
+        <v>554</v>
       </c>
       <c r="D11" s="7">
-        <v>827355</v>
+        <v>589806</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>586</v>
+      </c>
+      <c r="I11" s="7">
+        <v>572902</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>764</v>
-      </c>
-      <c r="I11" s="7">
-        <v>810791</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1140</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1162707</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1531</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1638146</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>677595</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>695</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>682860</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1335</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1360455</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,55 +2131,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>87789</v>
+        <v>126394</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>155</v>
+      </c>
+      <c r="I13" s="7">
+        <v>165679</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>109</v>
-      </c>
-      <c r="I13" s="7">
-        <v>109958</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>293</v>
+      </c>
+      <c r="N13" s="7">
+        <v>292073</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>195</v>
-      </c>
-      <c r="N13" s="7">
-        <v>197748</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,46 +2188,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>554</v>
+        <v>855</v>
       </c>
       <c r="D14" s="7">
-        <v>589806</v>
+        <v>814978</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>842</v>
+      </c>
+      <c r="I14" s="7">
+        <v>872933</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>586</v>
-      </c>
-      <c r="I14" s="7">
-        <v>572902</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1697</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1687911</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>1140</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1162707</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>677595</v>
+        <v>941372</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>695</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>682860</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1335</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1360455</v>
+        <v>1979984</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>459</v>
       </c>
       <c r="D16" s="7">
-        <v>126394</v>
+        <v>454486</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>510</v>
+      </c>
+      <c r="I16" s="7">
+        <v>535342</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>155</v>
-      </c>
-      <c r="I16" s="7">
-        <v>165679</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>969</v>
+      </c>
+      <c r="N16" s="7">
+        <v>989828</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>293</v>
-      </c>
-      <c r="N16" s="7">
-        <v>292073</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>855</v>
+        <v>2753</v>
       </c>
       <c r="D17" s="7">
-        <v>814978</v>
+        <v>2820293</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2785</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2841958</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>842</v>
-      </c>
-      <c r="I17" s="7">
-        <v>872933</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5538</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5662251</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>1697</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1687911</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3212</v>
       </c>
       <c r="D18" s="7">
-        <v>941372</v>
+        <v>3274779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3377300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1979984</v>
+        <v>6652079</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>459</v>
-      </c>
-      <c r="D19" s="7">
-        <v>454486</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>510</v>
-      </c>
-      <c r="I19" s="7">
-        <v>535342</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>969</v>
-      </c>
-      <c r="N19" s="7">
-        <v>989828</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2753</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2820292</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2785</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2841958</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5538</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5662251</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3212</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3274778</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377300</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6652079</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C78395-AEA4-4244-B805-1FA977CAEE3A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D371CE-D5F8-42DB-B682-F49207FEE3D5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7">
-        <v>15708</v>
+        <v>142112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="I4" s="7">
-        <v>26618</v>
+        <v>133037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="N4" s="7">
-        <v>42326</v>
+        <v>275149</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>542</v>
       </c>
       <c r="D5" s="7">
-        <v>100057</v>
+        <v>560330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="I5" s="7">
-        <v>85287</v>
+        <v>564013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>179</v>
+        <v>1067</v>
       </c>
       <c r="N5" s="7">
-        <v>185344</v>
+        <v>1124343</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702442</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1399492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D7" s="7">
-        <v>126404</v>
+        <v>179297</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7">
-        <v>106420</v>
+        <v>191792</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="N7" s="7">
-        <v>232823</v>
+        <v>371090</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>438</v>
+        <v>773</v>
       </c>
       <c r="D8" s="7">
-        <v>460273</v>
+        <v>838650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>450</v>
+        <v>764</v>
       </c>
       <c r="I8" s="7">
-        <v>478725</v>
+        <v>839321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
-        <v>888</v>
+        <v>1537</v>
       </c>
       <c r="N8" s="7">
-        <v>938999</v>
+        <v>1677970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>586677</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031113</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1171822</v>
+        <v>2049060</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>179297</v>
+        <v>118840</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="7">
+        <v>121</v>
+      </c>
+      <c r="I10" s="7">
+        <v>133365</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="7">
+        <v>224</v>
+      </c>
+      <c r="N10" s="7">
+        <v>252205</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>175</v>
-      </c>
-      <c r="I10" s="7">
-        <v>191792</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="7">
-        <v>338</v>
-      </c>
-      <c r="N10" s="7">
-        <v>371090</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>773</v>
+        <v>585</v>
       </c>
       <c r="D11" s="7">
-        <v>838650</v>
+        <v>637778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="I11" s="7">
-        <v>839321</v>
+        <v>643809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>1537</v>
+        <v>1169</v>
       </c>
       <c r="N11" s="7">
-        <v>1677970</v>
+        <v>1281587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1031113</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2049060</v>
+        <v>1533792</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,55 +3038,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D13" s="7">
-        <v>118840</v>
+        <v>163921</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>133365</v>
+        <v>191156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="N13" s="7">
-        <v>252205</v>
+        <v>355077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>585</v>
+        <v>756</v>
       </c>
       <c r="D14" s="7">
-        <v>637778</v>
+        <v>780827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>584</v>
+        <v>822</v>
       </c>
       <c r="I14" s="7">
-        <v>643809</v>
+        <v>860745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1169</v>
+        <v>1578</v>
       </c>
       <c r="N14" s="7">
-        <v>1281587</v>
+        <v>1641572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756618</v>
+        <v>944748</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1533792</v>
+        <v>1996649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>151</v>
+        <v>548</v>
       </c>
       <c r="D16" s="7">
-        <v>163921</v>
+        <v>604171</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>181</v>
+        <v>602</v>
       </c>
       <c r="I16" s="7">
-        <v>191156</v>
+        <v>649351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>332</v>
+        <v>1150</v>
       </c>
       <c r="N16" s="7">
-        <v>355077</v>
+        <v>1253522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>756</v>
+        <v>2656</v>
       </c>
       <c r="D17" s="7">
-        <v>780827</v>
+        <v>2817584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>822</v>
+        <v>2695</v>
       </c>
       <c r="I17" s="7">
-        <v>860745</v>
+        <v>2907887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1578</v>
+        <v>5351</v>
       </c>
       <c r="N17" s="7">
-        <v>1641572</v>
+        <v>5725471</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>944748</v>
+        <v>3421755</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3557238</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6501</v>
       </c>
       <c r="N18" s="7">
-        <v>1996649</v>
+        <v>6978993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>548</v>
-      </c>
-      <c r="D19" s="7">
-        <v>604171</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="7">
-        <v>602</v>
-      </c>
-      <c r="I19" s="7">
-        <v>649351</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1150</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1253522</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2656</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2817584</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2695</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2907887</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5351</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5725471</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421755</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3557238</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6501</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6978993</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D1BB13-149C-4AFD-AC93-25C9D38CAFEA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5795D8EA-D329-4C16-AF73-936CA199D0CB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>20523</v>
+        <v>115167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7">
-        <v>20466</v>
+        <v>119528</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="N4" s="7">
-        <v>40989</v>
+        <v>234695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>533</v>
       </c>
       <c r="D5" s="7">
-        <v>96023</v>
+        <v>559633</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>553</v>
       </c>
       <c r="I5" s="7">
-        <v>92894</v>
+        <v>553311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>1086</v>
       </c>
       <c r="N5" s="7">
-        <v>188917</v>
+        <v>1112944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>94643</v>
+        <v>148260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>99062</v>
+        <v>187954</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="N7" s="7">
-        <v>193706</v>
+        <v>336214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>442</v>
+        <v>803</v>
       </c>
       <c r="D8" s="7">
-        <v>463611</v>
+        <v>874171</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>457</v>
+        <v>818</v>
       </c>
       <c r="I8" s="7">
-        <v>460417</v>
+        <v>854959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>899</v>
+        <v>1621</v>
       </c>
       <c r="N8" s="7">
-        <v>924027</v>
+        <v>1729130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7">
-        <v>148260</v>
+        <v>126463</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>187954</v>
+        <v>122959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>336214</v>
+        <v>249422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>803</v>
+        <v>577</v>
       </c>
       <c r="D11" s="7">
-        <v>874171</v>
+        <v>633089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>818</v>
+        <v>631</v>
       </c>
       <c r="I11" s="7">
-        <v>854959</v>
+        <v>662052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
-        <v>1621</v>
+        <v>1208</v>
       </c>
       <c r="N11" s="7">
-        <v>1729130</v>
+        <v>1295141</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,55 +3945,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>126463</v>
+        <v>144458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>122959</v>
+        <v>182439</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="N13" s="7">
-        <v>249422</v>
+        <v>326897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>577</v>
+        <v>782</v>
       </c>
       <c r="D14" s="7">
-        <v>633089</v>
+        <v>793109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>631</v>
+        <v>810</v>
       </c>
       <c r="I14" s="7">
-        <v>662052</v>
+        <v>861340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>1208</v>
+        <v>1592</v>
       </c>
       <c r="N14" s="7">
-        <v>1295141</v>
+        <v>1654449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="D16" s="7">
-        <v>144458</v>
+        <v>534348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="I16" s="7">
-        <v>182439</v>
+        <v>612880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>299</v>
+        <v>1062</v>
       </c>
       <c r="N16" s="7">
-        <v>326897</v>
+        <v>1147228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>782</v>
+        <v>2695</v>
       </c>
       <c r="D17" s="7">
-        <v>793109</v>
+        <v>2860002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>810</v>
+        <v>2812</v>
       </c>
       <c r="I17" s="7">
-        <v>861340</v>
+        <v>2931662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>1592</v>
+        <v>5507</v>
       </c>
       <c r="N17" s="7">
-        <v>1654449</v>
+        <v>5791664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>536</v>
-      </c>
-      <c r="D19" s="7">
-        <v>534348</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="7">
-        <v>526</v>
-      </c>
-      <c r="I19" s="7">
-        <v>612880</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1147228</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2695</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2860002</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2812</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2931662</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5507</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5791664</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E437BA-647D-4785-B6F7-7AADD18FE510}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A87D51-D523-4916-BD99-70C069BFC0BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="D4" s="7">
-        <v>29267</v>
+        <v>201201</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>117</v>
+        <v>555</v>
       </c>
       <c r="I4" s="7">
-        <v>52218</v>
+        <v>255361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>161</v>
+        <v>857</v>
       </c>
       <c r="N4" s="7">
-        <v>81485</v>
+        <v>456562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="D5" s="7">
-        <v>72715</v>
+        <v>434240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>683</v>
       </c>
       <c r="I5" s="7">
-        <v>78515</v>
+        <v>420009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>200</v>
+        <v>1111</v>
       </c>
       <c r="N5" s="7">
-        <v>151230</v>
+        <v>854249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>183290</v>
+        <v>257161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>438</v>
+        <v>621</v>
       </c>
       <c r="I7" s="7">
-        <v>222189</v>
+        <v>343350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>696</v>
+        <v>952</v>
       </c>
       <c r="N7" s="7">
-        <v>405479</v>
+        <v>600511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>354</v>
+        <v>633</v>
       </c>
       <c r="D8" s="7">
-        <v>366533</v>
+        <v>935703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>557</v>
+        <v>895</v>
       </c>
       <c r="I8" s="7">
-        <v>370366</v>
+        <v>614756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>911</v>
+        <v>1528</v>
       </c>
       <c r="N8" s="7">
-        <v>736899</v>
+        <v>1550460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>279253</v>
+        <v>210330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>621</v>
+        <v>376</v>
       </c>
       <c r="I10" s="7">
-        <v>381419</v>
+        <v>433928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>952</v>
+        <v>623</v>
       </c>
       <c r="N10" s="7">
-        <v>660673</v>
+        <v>644258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>633</v>
+        <v>429</v>
       </c>
       <c r="D11" s="7">
-        <v>759995</v>
+        <v>494350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
-        <v>895</v>
+        <v>671</v>
       </c>
       <c r="I11" s="7">
-        <v>678055</v>
+        <v>499438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
-        <v>1528</v>
+        <v>1100</v>
       </c>
       <c r="N11" s="7">
-        <v>1438049</v>
+        <v>993788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,55 +4852,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>247</v>
+        <v>448</v>
       </c>
       <c r="D13" s="7">
-        <v>223844</v>
+        <v>334750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>376</v>
+        <v>686</v>
       </c>
       <c r="I13" s="7">
-        <v>361326</v>
+        <v>395937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>623</v>
+        <v>1134</v>
       </c>
       <c r="N13" s="7">
-        <v>585170</v>
+        <v>730687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>429</v>
+        <v>558</v>
       </c>
       <c r="D14" s="7">
-        <v>504928</v>
+        <v>592081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>671</v>
+        <v>875</v>
       </c>
       <c r="I14" s="7">
-        <v>513045</v>
+        <v>696656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>1100</v>
+        <v>1433</v>
       </c>
       <c r="N14" s="7">
-        <v>1017972</v>
+        <v>1288737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>448</v>
+        <v>1328</v>
       </c>
       <c r="D16" s="7">
-        <v>355667</v>
+        <v>1003443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>686</v>
+        <v>2238</v>
       </c>
       <c r="I16" s="7">
-        <v>439629</v>
+        <v>1428576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>1134</v>
+        <v>3566</v>
       </c>
       <c r="N16" s="7">
-        <v>795296</v>
+        <v>2432019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>558</v>
+        <v>2048</v>
       </c>
       <c r="D17" s="7">
-        <v>609736</v>
+        <v>2456374</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>875</v>
+        <v>3124</v>
       </c>
       <c r="I17" s="7">
-        <v>708040</v>
+        <v>2230859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>1433</v>
+        <v>5172</v>
       </c>
       <c r="N17" s="7">
-        <v>1317777</v>
+        <v>4687233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3659435</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8738</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7119252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1328</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1071322</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2238</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1456781</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3566</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2528103</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2048</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2313906</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3124</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2348021</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5172</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4661927</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8738</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7190030</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
